--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/4.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/4.xlsx
@@ -479,13 +479,13 @@
         <v>-0.3135083699407601</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.639820876526503</v>
+        <v>-1.620487199659566</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08649010382695106</v>
+        <v>0.09448612096315856</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0896457838848385</v>
+        <v>-0.09086250066560393</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.3179408298912456</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.670822757139641</v>
+        <v>-1.650923220398597</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09648512524721044</v>
+        <v>0.1080337035401936</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.08590591445262806</v>
+        <v>-0.08795213931031895</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3473757058278835</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.793223206069346</v>
+        <v>-1.778780793621852</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07611731781757954</v>
+        <v>0.08615011569675012</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.08473169618813775</v>
+        <v>-0.0866897759750358</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3893876555050922</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.916028964922787</v>
+        <v>-1.91143440310771</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1287037226411142</v>
+        <v>0.1451947209749815</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.09275289763028606</v>
+        <v>-0.09596074859949685</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.4243178953155135</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.893276518524385</v>
+        <v>-1.887640743060568</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1857808040177198</v>
+        <v>0.2078060535820803</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1341448784631303</v>
+        <v>-0.1415884148877612</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.4348740429893989</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.841510177663048</v>
+        <v>-1.842885083365505</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2832015694923832</v>
+        <v>0.3115040073124909</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1433938148198931</v>
+        <v>-0.1495246192973593</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.4139868458232147</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.632838527704413</v>
+        <v>-1.646189357891285</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3479724563339066</v>
+        <v>0.3779575205946846</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1464080614371839</v>
+        <v>-0.1535304979610695</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.364467016373875</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.323066842575074</v>
+        <v>-1.342953000153587</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4254204931783856</v>
+        <v>0.4639210008854004</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1490382473888774</v>
+        <v>-0.1573160139477977</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2915465741673272</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9013493435197082</v>
+        <v>-0.9259245040605759</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4216633095358408</v>
+        <v>0.4557959141812463</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1210049668385121</v>
+        <v>-0.1309574897424964</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1981586268023597</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3555731663903471</v>
+        <v>-0.3699754413502484</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3708649904341037</v>
+        <v>0.4110150701802417</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.09431747263685894</v>
+        <v>-0.1072905382346192</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.08882788132223557</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2814591303251034</v>
+        <v>0.2819250399850083</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2606002289296266</v>
+        <v>0.3094278760914953</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0193910144247036</v>
+        <v>-0.03000147732139153</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.03245730778341299</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9378550102707949</v>
+        <v>0.9524839439841635</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0202018625524939</v>
+        <v>0.07607167126306182</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08134306130029782</v>
+        <v>0.07075935672867199</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1614150947515932</v>
       </c>
       <c r="E14" t="n">
-        <v>1.617746273640142</v>
+        <v>1.649832653427856</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2785752990145601</v>
+        <v>-0.2194126423022311</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2028321531587701</v>
+        <v>0.1953193598928019</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2940655035417487</v>
       </c>
       <c r="E15" t="n">
-        <v>2.292970570314832</v>
+        <v>2.331332564339172</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.5800456072981595</v>
+        <v>-0.5189862575446632</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3196086317680681</v>
+        <v>0.3147622268935833</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.431348692061141</v>
       </c>
       <c r="E16" t="n">
-        <v>2.918611690649429</v>
+        <v>2.971456234608858</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.8969712093338104</v>
+        <v>-0.8366516485673254</v>
       </c>
       <c r="G16" t="n">
-        <v>0.446147176967673</v>
+        <v>0.440509040475174</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5764859872409845</v>
       </c>
       <c r="E17" t="n">
-        <v>3.640936935509921</v>
+        <v>3.71897680354401</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.286871485871204</v>
+        <v>-1.231495132155163</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5927025233328588</v>
+        <v>0.5915235830110046</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.732897510846809</v>
       </c>
       <c r="E18" t="n">
-        <v>4.186942132421432</v>
+        <v>4.277253053525181</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.624341972487632</v>
+        <v>-1.570519962653876</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7253986313349919</v>
+        <v>0.7231855604504431</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.9001669565162612</v>
       </c>
       <c r="E19" t="n">
-        <v>4.716599566739114</v>
+        <v>4.831712307137197</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.002650385206207</v>
+        <v>-1.95316007599427</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8998046720324721</v>
+        <v>0.9014054494788348</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.070062212425861</v>
       </c>
       <c r="E20" t="n">
-        <v>5.114283367831339</v>
+        <v>5.24126578642315</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.380468490968496</v>
+        <v>-2.332021756433982</v>
       </c>
       <c r="G20" t="n">
-        <v>1.061508378421056</v>
+        <v>1.06560397617468</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.232618799014114</v>
       </c>
       <c r="E21" t="n">
-        <v>5.441776934247402</v>
+        <v>5.57735821929888</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.756278148332005</v>
+        <v>-2.719848262779061</v>
       </c>
       <c r="G21" t="n">
-        <v>1.231445778833163</v>
+        <v>1.242589834211972</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.380266802996841</v>
       </c>
       <c r="E22" t="n">
-        <v>5.695891303247549</v>
+        <v>5.841089845130174</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.068373085684384</v>
+        <v>-3.044290593128484</v>
       </c>
       <c r="G22" t="n">
-        <v>1.346102053686069</v>
+        <v>1.363043221488628</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.506422518809778</v>
       </c>
       <c r="E23" t="n">
-        <v>5.899685854958834</v>
+        <v>6.056451863363898</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.291068459004248</v>
+        <v>-3.281470877412117</v>
       </c>
       <c r="G23" t="n">
-        <v>1.436096596946436</v>
+        <v>1.45271666484825</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.608538239436439</v>
       </c>
       <c r="E24" t="n">
-        <v>5.953830538712457</v>
+        <v>6.112091865282756</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.490108685959645</v>
+        <v>-3.490682415929359</v>
       </c>
       <c r="G24" t="n">
-        <v>1.535607659814187</v>
+        <v>1.555279750792203</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.685083966451201</v>
       </c>
       <c r="E25" t="n">
-        <v>5.995627042459476</v>
+        <v>6.154527420793023</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.624381961121321</v>
+        <v>-3.627846377207304</v>
       </c>
       <c r="G25" t="n">
-        <v>1.585219168498463</v>
+        <v>1.606630550605516</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.734788008517237</v>
       </c>
       <c r="E26" t="n">
-        <v>5.949653091964525</v>
+        <v>6.101627786164349</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.759707468065587</v>
+        <v>-3.777301066793926</v>
       </c>
       <c r="G26" t="n">
-        <v>1.624067534431285</v>
+        <v>1.645763813999294</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.758706895303955</v>
       </c>
       <c r="E27" t="n">
-        <v>5.851786879078533</v>
+        <v>5.99432532864616</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.834935350939471</v>
+        <v>-3.868709866234781</v>
       </c>
       <c r="G27" t="n">
-        <v>1.632723065579318</v>
+        <v>1.656586769477358</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.75764295115233</v>
       </c>
       <c r="E28" t="n">
-        <v>5.659518869392533</v>
+        <v>5.797404518437594</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.81820903674697</v>
+        <v>-3.856295577425083</v>
       </c>
       <c r="G28" t="n">
-        <v>1.62331043123394</v>
+        <v>1.647676247231674</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.732503678346347</v>
       </c>
       <c r="E29" t="n">
-        <v>5.533258925577399</v>
+        <v>5.668298748051148</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.757280330580541</v>
+        <v>-3.797258055232897</v>
       </c>
       <c r="G29" t="n">
-        <v>1.572446003329108</v>
+        <v>1.597482351472517</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.687147705081172</v>
       </c>
       <c r="E30" t="n">
-        <v>5.314928307280901</v>
+        <v>5.44008014163464</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.667329072846011</v>
+        <v>-3.709401029939257</v>
       </c>
       <c r="G30" t="n">
-        <v>1.534860000731569</v>
+        <v>1.561865446795725</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.625750084681872</v>
       </c>
       <c r="E31" t="n">
-        <v>5.127848264618708</v>
+        <v>5.24424225658153</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.54406291339959</v>
+        <v>-3.585965663437296</v>
       </c>
       <c r="G31" t="n">
-        <v>1.450207678368897</v>
+        <v>1.474557754175418</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.552442731209424</v>
       </c>
       <c r="E32" t="n">
-        <v>4.909873374643625</v>
+        <v>5.016025224184143</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.415334120592695</v>
+        <v>-3.456926788863505</v>
       </c>
       <c r="G32" t="n">
-        <v>1.35697065571865</v>
+        <v>1.377986959026257</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.473356886234266</v>
       </c>
       <c r="E33" t="n">
-        <v>4.609382106253475</v>
+        <v>4.70054929375921</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.231857794708719</v>
+        <v>-3.263931582343464</v>
       </c>
       <c r="G33" t="n">
-        <v>1.244322829264524</v>
+        <v>1.261522136202977</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.391668193706987</v>
       </c>
       <c r="E34" t="n">
-        <v>4.298862762041518</v>
+        <v>4.380951007255591</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.131736012421904</v>
+        <v>-3.159850354957016</v>
       </c>
       <c r="G34" t="n">
-        <v>1.155545002784923</v>
+        <v>1.17037855898406</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.310889703783996</v>
       </c>
       <c r="E35" t="n">
-        <v>3.974282705018982</v>
+        <v>4.041875808144996</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.991403550652781</v>
+        <v>-3.014705329724516</v>
       </c>
       <c r="G35" t="n">
-        <v>1.04656778892167</v>
+        <v>1.057548146311863</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.234914676238919</v>
       </c>
       <c r="E36" t="n">
-        <v>3.685826386830296</v>
+        <v>3.742963280933511</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.902606835943724</v>
+        <v>-2.921768157716877</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9497482987513429</v>
+        <v>0.9574625664648375</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.164082001770144</v>
       </c>
       <c r="E37" t="n">
-        <v>3.367808415524463</v>
+        <v>3.418447758694948</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.772503137434373</v>
+        <v>-2.787852184895736</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8692104623717506</v>
+        <v>0.8759897627271926</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.09888360792737</v>
       </c>
       <c r="E38" t="n">
-        <v>3.040299108917186</v>
+        <v>3.080885191959924</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.650993583327323</v>
+        <v>-2.664859904776422</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7968496553273153</v>
+        <v>0.7996986299368696</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.037976377543217</v>
       </c>
       <c r="E39" t="n">
-        <v>2.733152887682176</v>
+        <v>2.765130660150521</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.514833059239208</v>
+        <v>-2.521384126822061</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7245990296213712</v>
+        <v>0.7258928733390804</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9776469960838975</v>
       </c>
       <c r="E40" t="n">
-        <v>2.499702241706464</v>
+        <v>2.530395614571828</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.393719370941165</v>
+        <v>-2.394020795602894</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6789493270654087</v>
+        <v>0.6814394253153063</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9170084041615508</v>
       </c>
       <c r="E41" t="n">
-        <v>2.302609863413677</v>
+        <v>2.330255935260203</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.287935841875032</v>
+        <v>-2.283663166970261</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5951816034489074</v>
+        <v>0.5951328088561471</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.8546087400725295</v>
       </c>
       <c r="E42" t="n">
-        <v>2.069204863992484</v>
+        <v>2.093890205871842</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.218401186162891</v>
+        <v>-2.217416637202518</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5392881844515199</v>
+        <v>0.541324965194483</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7888609586584275</v>
       </c>
       <c r="E43" t="n">
-        <v>1.835662924907737</v>
+        <v>1.861102221946199</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.125985014484403</v>
+        <v>-2.123430381450532</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4792283368400496</v>
+        <v>0.479351110331511</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.7215502231284256</v>
       </c>
       <c r="E44" t="n">
-        <v>1.607162569068516</v>
+        <v>1.632261877976777</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.068188606369364</v>
+        <v>-2.06682865384856</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4309201159882102</v>
+        <v>0.4324579326697209</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.6527431565522087</v>
       </c>
       <c r="E45" t="n">
-        <v>1.391167795148029</v>
+        <v>1.416852639169414</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.996538468958196</v>
+        <v>-2.000661612046443</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3554144187394162</v>
+        <v>0.3535098556026424</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.5835892456468964</v>
       </c>
       <c r="E46" t="n">
-        <v>1.20169681744058</v>
+        <v>1.227550081507944</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.926666186144537</v>
+        <v>-1.928724216145637</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2992628606061354</v>
+        <v>0.2983593736305089</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.5159092357350781</v>
       </c>
       <c r="E47" t="n">
-        <v>1.022892967318186</v>
+        <v>1.044797017410206</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.848894688370631</v>
+        <v>-1.849209492194891</v>
       </c>
       <c r="G47" t="n">
-        <v>0.281750323862544</v>
+        <v>0.2834140620737588</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4503911260321583</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8586834224884916</v>
+        <v>0.8821252892620227</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.795814041543007</v>
+        <v>-1.794923146720351</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2193357436456078</v>
+        <v>0.2195466622078621</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3884935374938751</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7393113863481687</v>
+        <v>0.7615003339011446</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.756358104229363</v>
+        <v>-1.754751030706515</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1791179810772539</v>
+        <v>0.1801804439841319</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3313295529078323</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6524947876937079</v>
+        <v>0.6760735941307923</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.683500694152158</v>
+        <v>-1.681436368074572</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1455126728374843</v>
+        <v>0.1467105013887941</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2788573228015564</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5383122925963135</v>
+        <v>0.564294626231624</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.611955229012556</v>
+        <v>-1.60708363983213</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1100452999772159</v>
+        <v>0.1131996342963024</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2314174523870018</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3893691592241146</v>
+        <v>0.4101351934914346</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.565555506345294</v>
+        <v>-1.559442016078162</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06286565083534905</v>
+        <v>0.06279796801313312</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1886534084262801</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2991731415162213</v>
+        <v>0.3208159044341057</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.550625147970196</v>
+        <v>-1.545838555822321</v>
       </c>
       <c r="G53" t="n">
-        <v>0.005897176778113252</v>
+        <v>0.004688330092954324</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1496282036883538</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2057881610685728</v>
+        <v>0.2264865125136769</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.504799942282208</v>
+        <v>-1.497403626431216</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01951378791616505</v>
+        <v>-0.02324578725276898</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1146818940098467</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1129792716193203</v>
+        <v>0.1301911707107434</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.501141134834745</v>
+        <v>-1.49300266896806</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.03888681526113392</v>
+        <v>-0.04011927223311235</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.08328933638365874</v>
       </c>
       <c r="E56" t="n">
-        <v>0.004504169855762144</v>
+        <v>0.01785814808087718</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.494907232104834</v>
+        <v>-1.487983908999793</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.08825592500072998</v>
+        <v>-0.09040603512042673</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.05499265350235829</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.05894611494298988</v>
+        <v>-0.04532455346725373</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.499617484325326</v>
+        <v>-1.493817223863333</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.09748282508979463</v>
+        <v>-0.09832335130056918</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.02935087468310152</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1720330927319591</v>
+        <v>-0.16022322726484</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.523681088651771</v>
+        <v>-1.518141328354353</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1535651263817381</v>
+        <v>-0.1564943759664787</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.005547246994662673</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2560416412740194</v>
+        <v>-0.2456358008631006</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.536850119630133</v>
+        <v>-1.532026538032907</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1878252265759689</v>
+        <v>-0.1942078741128432</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.0165908513824517</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3597364469661874</v>
+        <v>-0.3524754967596274</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.531887237340672</v>
+        <v>-1.52531413349012</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2232469528817196</v>
+        <v>-0.2302450418950224</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.03719150211815425</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.4608860637392122</v>
+        <v>-0.4544310113227581</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.58295313969303</v>
+        <v>-1.577348057602078</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2412474355529143</v>
+        <v>-0.2470728803208481</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.05658330075778362</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5570350217638648</v>
+        <v>-0.5546897332731267</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.605622163078003</v>
+        <v>-1.600018655006172</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2623849383328612</v>
+        <v>-0.2687486976402799</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.0743722660604075</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6553876065583382</v>
+        <v>-0.6581988047089813</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.660410620652237</v>
+        <v>-1.654619804304972</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2997348380622052</v>
+        <v>-0.3077245591219275</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.09003771598558498</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7561452925701592</v>
+        <v>-0.7612466885422947</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.72381289786779</v>
+        <v>-1.724984755103598</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3533144489512806</v>
+        <v>-0.3638650991213591</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1032708801538971</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8525594728167508</v>
+        <v>-0.858575373898362</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.800532950868667</v>
+        <v>-1.80552259148319</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3802128617151881</v>
+        <v>-0.3910263730785238</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1138926933524524</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9247998673984066</v>
+        <v>-0.9291874456990322</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.840709001930306</v>
+        <v>-1.8440412004101</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4159966124188379</v>
+        <v>-0.4291207838522431</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1219873160806848</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.008048164704879</v>
+        <v>-1.017918051604995</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.864847372165013</v>
+        <v>-1.867021092571529</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4524335810578275</v>
+        <v>-0.4659197768891318</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1280259931998843</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.049399221040569</v>
+        <v>-1.058600149814132</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.884602886156458</v>
+        <v>-1.885861314443938</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4727840742771241</v>
+        <v>-0.4869581164644368</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.132262726071771</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.063216747896907</v>
+        <v>-1.074478854709813</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.967436429424467</v>
+        <v>-1.970946492064968</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.509384740904729</v>
+        <v>-0.5247849439875349</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1351924993814549</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.051061385232662</v>
+        <v>-1.064468093098341</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.990709089142459</v>
+        <v>-1.995280827680276</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5335805628373632</v>
+        <v>-0.5508459785789104</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1370122242487286</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.042700982669874</v>
+        <v>-1.053634906495989</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.019416836886301</v>
+        <v>-2.02655580061096</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5351876363602112</v>
+        <v>-0.5501660023185085</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1374587216608338</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.04986040864311</v>
+        <v>-1.062470662833411</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.063671171491231</v>
+        <v>-2.073153062677946</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.536804153997787</v>
+        <v>-0.5519304777534866</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1364114291431611</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9492640595912225</v>
+        <v>-0.9549037701028429</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.037099367694993</v>
+        <v>-2.040309579692886</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5472288826381615</v>
+        <v>-0.5616217134833349</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1335750210651007</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8346211639008475</v>
+        <v>-0.8330676070281238</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.056951683862398</v>
+        <v>-2.055969495930706</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5467771391503482</v>
+        <v>-0.5610582146379093</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1286726512878584</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7268622408374812</v>
+        <v>-0.7237866074744596</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.043485950279671</v>
+        <v>-2.037924153714555</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5427555202954248</v>
+        <v>-0.5559064500538922</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1215458081278832</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5756273356246685</v>
+        <v>-0.5675447474367894</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.011907978668136</v>
+        <v>-2.003516095722922</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.527528459315962</v>
+        <v>-0.5399647843933588</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1125226595143836</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.4303312045565232</v>
+        <v>-0.4162783618415507</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.984420095743302</v>
+        <v>-1.974002450188973</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4721088200740861</v>
+        <v>-0.4807549071073908</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1019581055916157</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2629500111974081</v>
+        <v>-0.2428072885021232</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.989593896595017</v>
+        <v>-1.980098626245771</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4362998850644955</v>
+        <v>-0.4409306493193621</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.08959663266612472</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.06064920363223723</v>
+        <v>-0.0322003820338486</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.945649643756984</v>
+        <v>-1.931895864675058</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4044464601067335</v>
+        <v>-0.409160647375029</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.07519848631871029</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1176068878359444</v>
+        <v>0.1497168779104784</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.867742780338646</v>
+        <v>-1.850681200073307</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3652455138907398</v>
+        <v>-0.3661442788090025</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.05830616563627682</v>
       </c>
       <c r="E81" t="n">
-        <v>0.3372171836780589</v>
+        <v>0.3754123316755414</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.83006391061295</v>
+        <v>-1.814323719399943</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3143196992401774</v>
+        <v>-0.3130888162873202</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.0391517314938887</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5661960413301552</v>
+        <v>0.6139549295086607</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.796505822946819</v>
+        <v>-1.778288912646446</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2694711724169569</v>
+        <v>-0.2662648954668674</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.01784749961735222</v>
       </c>
       <c r="E83" t="n">
-        <v>0.7760946391938445</v>
+        <v>0.828030974120282</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.742651545721077</v>
+        <v>-1.726448592886408</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.231326393031356</v>
+        <v>-0.2262737916519808</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.005169360527947377</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9864260923158915</v>
+        <v>1.040643180949094</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.685691728769008</v>
+        <v>-1.674481564587105</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1805926087135922</v>
+        <v>-0.1743453268211498</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.02951840470753032</v>
       </c>
       <c r="E85" t="n">
-        <v>1.229601028422999</v>
+        <v>1.290970459943391</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.614678282092406</v>
+        <v>-1.607322890738568</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1389660990316743</v>
+        <v>-0.1317161669589633</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.0549631086872658</v>
       </c>
       <c r="E86" t="n">
-        <v>1.432284322634646</v>
+        <v>1.490463217396162</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.538048735191003</v>
+        <v>-1.531873858178141</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.09746078882209641</v>
+        <v>-0.08957652704350126</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.08108172356266828</v>
       </c>
       <c r="E87" t="n">
-        <v>1.61292820110984</v>
+        <v>1.667918133131601</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.437822280632622</v>
+        <v>-1.4352786657326</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.0502842877184722</v>
+        <v>-0.0397682659690623</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1059865452221766</v>
       </c>
       <c r="E88" t="n">
-        <v>1.756623554731623</v>
+        <v>1.808520539180028</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.319358453525289</v>
+        <v>-1.322982632552084</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.01158387958305219</v>
+        <v>0.0003204270313449156</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1268735841246469</v>
       </c>
       <c r="E89" t="n">
-        <v>1.859677734641421</v>
+        <v>1.907318571385829</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.159574263455132</v>
+        <v>-1.165734187286342</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02001770231530172</v>
+        <v>0.03387064460186907</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1407033845288534</v>
       </c>
       <c r="E90" t="n">
-        <v>1.942996862808352</v>
+        <v>1.987839093555087</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.013901941816996</v>
+        <v>-1.024089780579615</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03954183549591545</v>
+        <v>0.05301543917424934</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1446298326439456</v>
       </c>
       <c r="E91" t="n">
-        <v>1.994281553818571</v>
+        <v>2.035128924035445</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8306664408585795</v>
+        <v>-0.8407118308907205</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02668209927488883</v>
+        <v>0.03877686220296332</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1369007693026556</v>
       </c>
       <c r="E92" t="n">
-        <v>2.045023208231941</v>
+        <v>2.087587833310154</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.621470642532551</v>
+        <v>-0.6315490869662392</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04063577878521943</v>
+        <v>0.05495305671257049</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1174315877617103</v>
       </c>
       <c r="E93" t="n">
-        <v>2.045859012385352</v>
+        <v>2.084491737698556</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4763287653382933</v>
+        <v>-0.4876632770307795</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03089102640524687</v>
+        <v>0.04371456018648358</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.08891331423367092</v>
       </c>
       <c r="E94" t="n">
-        <v>2.029371162089727</v>
+        <v>2.069333933560431</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2875125795853054</v>
+        <v>-0.2949450978760872</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.0007278697034413425</v>
+        <v>0.01282600895007888</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.05747357226507736</v>
       </c>
       <c r="E95" t="n">
-        <v>1.942175224827033</v>
+        <v>1.976632077411426</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.115643857711362</v>
+        <v>-0.1189886483441259</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.01319724918238539</v>
+        <v>-0.002542713750301036</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.02955771908790984</v>
       </c>
       <c r="E96" t="n">
-        <v>1.860590665731776</v>
+        <v>1.894236898468699</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.006029166103982059</v>
+        <v>-0.0116153599654782</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.04876693328553833</v>
+        <v>-0.04147135465830964</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.00953220721669046</v>
       </c>
       <c r="E97" t="n">
-        <v>1.68430209816522</v>
+        <v>1.709428165398543</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06860609857073266</v>
+        <v>0.06561703625938264</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.07846395204711841</v>
+        <v>-0.07212695106476184</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.003021849766125627</v>
       </c>
       <c r="E98" t="n">
-        <v>1.525184505192934</v>
+        <v>1.543975145463021</v>
       </c>
       <c r="F98" t="n">
-        <v>0.110056318111065</v>
+        <v>0.1053987955311362</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.09389406149322906</v>
+        <v>-0.0880339883046266</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.009831924554688109</v>
       </c>
       <c r="E99" t="n">
-        <v>1.379003775378617</v>
+        <v>1.395584492802399</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1239423147991796</v>
+        <v>0.1190943359055735</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1183779289250613</v>
+        <v>-0.1141438174887624</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.01652360428247565</v>
       </c>
       <c r="E100" t="n">
-        <v>1.220435515079665</v>
+        <v>1.231420594527222</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1420073322543476</v>
+        <v>0.1365769662858602</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1164466074632253</v>
+        <v>-0.1116663113918351</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.02502214085926343</v>
       </c>
       <c r="E101" t="n">
-        <v>1.085962339489583</v>
+        <v>1.095626816894369</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1207454819638179</v>
+        <v>0.1108622159011709</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1473084003745679</v>
+        <v>-0.1433481682653754</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.04363492808487025</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9382123126113301</v>
+        <v>0.9451600330127514</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1171157938700985</v>
+        <v>0.1075268693831348</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1214488402307189</v>
+        <v>-0.1132277383601654</v>
       </c>
     </row>
   </sheetData>
